--- a/arifintahu/evidence.xlsx
+++ b/arifintahu/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Work\s16\gon-evidence\arifintahu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C544527E-47B0-4F7A-AF7A-C198FB5D557B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA4E521-8263-4ECE-85D1-772126383C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,12 @@
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="45">
   <si>
     <t>TeamName</t>
   </si>
@@ -76,33 +76,15 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
     <t>nft id</t>
   </si>
   <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
     <t>ibc class on chain</t>
   </si>
   <si>
@@ -143,13 +125,67 @@
   </si>
   <si>
     <t>Cosmos Hub, Osmosis, Juno</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>BC90D62DCAB6D5E86D0828B7BB64FB22A566823B2567F253F5639517A6F158BD</t>
+  </si>
+  <si>
+    <t>s16collection001</t>
+  </si>
+  <si>
+    <t>E1E368DD07BADCE1DBB6F7A24CCC4C2F182DB33C197EBC054564A8CA716280C5</t>
+  </si>
+  <si>
+    <t>s16C1NFT001</t>
+  </si>
+  <si>
+    <t>s16C1NFT002</t>
+  </si>
+  <si>
+    <t>s16C1NFT003</t>
+  </si>
+  <si>
+    <t>s16C1NFT004</t>
+  </si>
+  <si>
+    <t>A459C8921F78DBC434CD9E8E616CE106B6FF4F98079F4ECEE63C9E321EB0B986</t>
+  </si>
+  <si>
+    <t>310689540C718DBA5D8375681CA2B05F5628FC0141ED8727EBA05935FC0124D2</t>
+  </si>
+  <si>
+    <t>8D2572069888675F8919A57B21DEFD100321D36CEA5CB2835872AF7558621F9A</t>
+  </si>
+  <si>
+    <t>8D71FC8BC1361D8C7ED3722678DD4FFE607BED856461C12AF4AB0B12FAEC56C4</t>
+  </si>
+  <si>
+    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/s16collection001</t>
+  </si>
+  <si>
+    <t>ibc/E66B1DDB8C7BE439D4EE1C5250BB5B312C492587B5FA58DDC2D53F3662DDE062</t>
+  </si>
+  <si>
+    <t>95C5683E1B903948DE7A1208AA90D5DC75B1428AC27EC01F0B7D21D76E02A456</t>
+  </si>
+  <si>
+    <t>EC94E8BF93A192D7788FAC02549C9AB1C4101E002712F5C6786DE3557D76CDF5</t>
+  </si>
+  <si>
+    <t>9E9B35F6E1AE2EF0AD3BB19107308E09D03C2CA591E224A0D52884666C54F4D5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -167,6 +203,17 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -201,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -210,6 +257,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -598,28 +647,28 @@
     </row>
     <row r="2" spans="1:8" ht="13.8">
       <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="H2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -644,15 +693,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.8">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -677,15 +726,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.8">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -710,15 +759,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.8">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -743,15 +792,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.8">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -776,25 +825,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.8">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -819,25 +868,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.8">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -862,25 +911,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.8">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -905,25 +954,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.8">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -948,25 +997,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.8">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -991,25 +1040,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.8">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
@@ -1039,10 +1090,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1067,25 +1118,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.8">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1110,25 +1161,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.8">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1152,12 +1203,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1187,12 +1238,12 @@
     </row>
     <row r="2" spans="1:1" ht="13.8">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1222,12 +1273,12 @@
     </row>
     <row r="2" spans="1:1" ht="13.8">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1257,12 +1308,12 @@
     </row>
     <row r="2" spans="1:1" ht="13.8">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1277,9 +1328,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
@@ -1295,21 +1348,55 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.8">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13.8">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.8">
+      <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1317,9 +1404,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
@@ -1327,7 +1416,7 @@
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.8">
+    <row r="1" spans="1:7" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1335,29 +1424,31 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.8">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>32</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1365,7 +1456,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
@@ -1381,24 +1474,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1409,9 +1502,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
@@ -1419,7 +1514,7 @@
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.8">
+    <row r="1" spans="1:7" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1427,25 +1522,27 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.8">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1457,7 +1554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
@@ -1475,24 +1574,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+      <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1517,15 +1616,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.8">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1550,17 +1649,17 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.8">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/arifintahu/evidence.xlsx
+++ b/arifintahu/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Work\s16\gon-evidence\arifintahu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA4E521-8263-4ECE-85D1-772126383C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC40568-C43D-4B06-9D2A-8CEC223A48A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="91">
   <si>
     <t>TeamName</t>
   </si>
@@ -82,21 +82,6 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
   </si>
   <si>
@@ -166,9 +151,6 @@
     <t>8D71FC8BC1361D8C7ED3722678DD4FFE607BED856461C12AF4AB0B12FAEC56C4</t>
   </si>
   <si>
-    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/s16collection001</t>
-  </si>
-  <si>
     <t>ibc/E66B1DDB8C7BE439D4EE1C5250BB5B312C492587B5FA58DDC2D53F3662DDE062</t>
   </si>
   <si>
@@ -179,13 +161,169 @@
   </si>
   <si>
     <t>9E9B35F6E1AE2EF0AD3BB19107308E09D03C2CA591E224A0D52884666C54F4D5</t>
+  </si>
+  <si>
+    <t>ibc/07D89BBC8943D5EBF8D4B5FA2F14FDC31E94579671D3453FF4880D88C7914A5C</t>
+  </si>
+  <si>
+    <t>s16C1NFT007</t>
+  </si>
+  <si>
+    <t>ibc/29E2A75CD4A82CBCC33679EC293D711F8B08B43D83DB5E567FF4A170ED479BB5</t>
+  </si>
+  <si>
+    <t>s16C1NFT008</t>
+  </si>
+  <si>
+    <t>ibc/B59321A8DD6407D97FA58B68256363E67A65B69D7345C86E15CDE6799B2735E8</t>
+  </si>
+  <si>
+    <t>s16C1NFT009</t>
+  </si>
+  <si>
+    <t>ibc/EFF2082714F5E95C27E53EC21320C149DBECD379CE096ACCD3265CF3DC7C7C71</t>
+  </si>
+  <si>
+    <t>s16C1NFT010</t>
+  </si>
+  <si>
+    <t>ibc/CA2A14306F5BAF9AA1560EB1DF246C7A7A84940091E038D851BAEC98F92417F7</t>
+  </si>
+  <si>
+    <t>s16C1NFT011</t>
+  </si>
+  <si>
+    <t>ibc/D644C1D345D2A2DA1A05F8E60B80FB18C4356FC49712ACBD98F77243D8D3DE09</t>
+  </si>
+  <si>
+    <t>s16C1NFT012</t>
+  </si>
+  <si>
+    <t>078C26EEEFE029300FD65B478EAB8441302BD1A1791111933340AE06EEA7D9E6</t>
+  </si>
+  <si>
+    <t>DC5E41FEB819DAEEC499B63E4FB483F6C1D994B0F4715E55534EC54303FC4728</t>
+  </si>
+  <si>
+    <t>A372E99B3B22B34EFF56B76C0969D5676C459064749F4FB33BCE04032AE936F0</t>
+  </si>
+  <si>
+    <t>29C23506DFFAF84CC71158CBAF43765A2F4A9A5F0EBAFA6832D867D53841729A</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>E38FF0C1A1977419633F28C29689C9DCEF75EB8CC37B21EEAD9912F6B26B1AF0</t>
+  </si>
+  <si>
+    <t>E3DE513CFC7378FD6F0BCFDDC7D48AC184BFBA83E73FCBDA8502E3AC30B04CC2</t>
+  </si>
+  <si>
+    <t>2F3BC04F8EDA1E25F6E15576FC129F0F805674BD4B5349E265091BE16D969710</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>6C5334F58A3CBF8C74B4B4867C5622F9730F424362E325CE929A56185D915608</t>
+  </si>
+  <si>
+    <t>2E0267FADE71F4CAF49F7D1E4FF6DB7C2BFB37CDF941DB4867FCA08208970A7D</t>
+  </si>
+  <si>
+    <t>ED142C2BDB1E63EEF6F8E1D214FCBF0B9E3F38229F9B19D62C2B404B3D342CC8</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>4C8B78B1215E13B2647BA18610A7B07C0BBA71BD1D0EE18C9554FFDAAAE8DA4E</t>
+  </si>
+  <si>
+    <t>EC10EADA88AF3E7F2F3984E39C587F1DE7DAF2D50FD767FECA83C2983A3A3A61</t>
+  </si>
+  <si>
+    <t>CF632C398041C33D6E9D4ACD9D776018585498F4DA899504D4FA2894CF9FA0CB</t>
+  </si>
+  <si>
+    <t>D2376AB94464ADF3FAA546EFED7352E1D6EFA624110F3BB94EE883FDEC4E775A</t>
+  </si>
+  <si>
+    <t>FCB6A25560A001E03CF3B3BC9933E1D42187D3FF125EA86973882115038E8204</t>
+  </si>
+  <si>
+    <t>E82AEB2D62FB775D879D159510C44E8D7A4DFDB18AA4BEF6AC0F603DC3A8F43C</t>
+  </si>
+  <si>
+    <t>679BCBECF8B8400B33568B7A9F3559FA90E761E73008D7EC3A2C7AD496DF81DE</t>
+  </si>
+  <si>
+    <t>9EDE544BD766B40B4B75944B8EE46ADAAA22DB4F732FFA43A662923358151F6C</t>
+  </si>
+  <si>
+    <t>41B2B16C8FE1D1FE712BB19E4BB36E623DC1646EAC366D2660B4342AA0784F3A</t>
+  </si>
+  <si>
+    <t>3E901B195A91A56DB9A9A228C9821D07D647B5D7748BE7ACC25D35A082DF6856</t>
+  </si>
+  <si>
+    <t>2BA6E5AE9199EED52F839E2891CB2DCF5007D86948F6D9319CF5DA6DBADAD058</t>
+  </si>
+  <si>
+    <t>A3FD42AFB3D832319154C874DE71BF44781487CD63072171CA92178B72AC96B9</t>
+  </si>
+  <si>
+    <t>A67D9013115CE6DF290D1DC6E0D7E9B260A4F1D0242324F57934DBD0E144B3BF</t>
+  </si>
+  <si>
+    <t>836F387198EF712A340D586A8811C3142221B955DAFA861F9C859025E6F4F709</t>
+  </si>
+  <si>
+    <t>stars16f9auhpc460y6v2m9ddfgewugfkq8dhjcjgydkzzkx54xgu93hpq63gvq7</t>
+  </si>
+  <si>
+    <t>D772AF67D1199CA10C0738DDAE432E3867D15D9C6F8E1D4ABABE3A475CC825F6</t>
+  </si>
+  <si>
+    <t>E37EF98B800ED855A8161D12075758750E97531F21BFBD6EC374C44368B95BFF</t>
+  </si>
+  <si>
+    <t>9AB95421DFBF48AB608701B3526A742ED76969B1C7D04F56E16DB07E866B041B</t>
+  </si>
+  <si>
+    <t>3E24476289E36E453B98836B1E2ADA3636BD62976925C5334A7718E2BD66928C</t>
+  </si>
+  <si>
+    <t>E871AE29DC18FFB6F841D6AF8310A34FF1C0FC23F488290FAA4E5907AB2203B2</t>
+  </si>
+  <si>
+    <t>8231B624949FF50EFD8B50A5694DD3DB5CF8E20BB57883E4BE00DF08F5955C5F</t>
+  </si>
+  <si>
+    <t>F5454784FDCBA5DA742C368A9F372ED0510F7770655128A8B4F1016D01E5BF34</t>
+  </si>
+  <si>
+    <t>0CD0AD2354145E00F0F3176A52737551FD3469B54964F1ED65B16E6C5E395D5F</t>
+  </si>
+  <si>
+    <t>C8E66F9352BC52FBA3F12A52CEEEDCFEC0C39C858C4AC87B9690D16CB4700A3C</t>
+  </si>
+  <si>
+    <t>92DB9ACFA4E1978FA40ED6A9D2A142438A56453A7AF03790D03CD27E4D9A4877</t>
+  </si>
+  <si>
+    <t>088E2F2357B9EA130C9AD6507A240BB4CC1A4DED833BF1D63BDF654D9B009C86</t>
+  </si>
+  <si>
+    <t>33754791CEC449299C6AD90BC085ADEB068BB611ECC61FE724F0FBFB24FCC3BA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -211,6 +349,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -248,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -259,6 +403,9 @@
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,28 +794,28 @@
     </row>
     <row r="2" spans="1:8" ht="13.8">
       <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -681,7 +828,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
@@ -698,10 +847,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -714,7 +863,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
@@ -731,10 +882,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -747,7 +898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
@@ -764,10 +917,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -780,7 +933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
@@ -797,10 +952,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -811,13 +966,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.8">
@@ -830,20 +987,34 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.8">
+      <c r="A5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -854,13 +1025,15 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.8">
@@ -873,20 +1046,34 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.8">
+      <c r="A5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -897,13 +1084,15 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.8">
@@ -916,20 +1105,34 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.8">
+      <c r="A5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -940,9 +1143,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
@@ -959,20 +1164,34 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.8">
+      <c r="A5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -983,9 +1202,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
@@ -1002,37 +1223,54 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.8">
+      <c r="A5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.8">
@@ -1044,21 +1282,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
+      <c r="A2" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
+      <c r="A3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
+      <c r="A4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.8">
+      <c r="A5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1090,10 +1342,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1104,9 +1356,11 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
@@ -1123,20 +1377,50 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.8">
+      <c r="A6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="13.8">
+      <c r="A7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1147,9 +1431,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
@@ -1165,26 +1451,56 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
+      <c r="A2" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
+      <c r="A3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+      <c r="A4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1203,12 +1519,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1238,12 +1554,12 @@
     </row>
     <row r="2" spans="1:1" ht="13.8">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1273,12 +1589,12 @@
     </row>
     <row r="2" spans="1:1" ht="13.8">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1308,12 +1624,12 @@
     </row>
     <row r="2" spans="1:1" ht="13.8">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1353,46 +1669,46 @@
     </row>
     <row r="2" spans="1:3" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.8">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1406,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -1432,16 +1748,16 @@
     </row>
     <row r="2" spans="1:7" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1457,7 +1773,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -1482,16 +1798,16 @@
     </row>
     <row r="2" spans="1:4" ht="13.8">
       <c r="A2" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1505,7 +1821,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -1530,16 +1846,16 @@
     </row>
     <row r="2" spans="1:7" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1582,16 +1898,16 @@
     </row>
     <row r="2" spans="1:4" ht="13.8">
       <c r="A2" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
@@ -1621,10 +1939,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1955,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
@@ -1654,10 +1974,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/arifintahu/evidence.xlsx
+++ b/arifintahu/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Work\s16\gon-evidence\arifintahu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC40568-C43D-4B06-9D2A-8CEC223A48A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EADE10F-B7E0-4741-A604-EDE8F1EB26CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="7" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="95">
   <si>
     <t>TeamName</t>
   </si>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>33754791CEC449299C6AD90BC085ADEB068BB611ECC61FE724F0FBFB24FCC3BA</t>
+  </si>
+  <si>
+    <t>D065B1CA8DA413A9F062FE9C7E794E168D210D27E7CC97F05EA5898D2AF0426B</t>
+  </si>
+  <si>
+    <t>CB8BFE2332380F34EC4F23C6187A318E87A733FDEF0C158459ACB47433DA5F92</t>
+  </si>
+  <si>
+    <t>F1DAC692A09E148AE00E47CA5AB026061D24A14130E6816AA9C88E5164FEF50E</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <sheetData>
@@ -1519,12 +1533,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1542,7 +1556,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -1554,12 +1568,12 @@
     </row>
     <row r="2" spans="1:1" ht="13.8">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/arifintahu/evidence.xlsx
+++ b/arifintahu/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Work\s16\gon-evidence\arifintahu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EADE10F-B7E0-4741-A604-EDE8F1EB26CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8323BD-F636-4C40-B82A-736E56129A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="7" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="7" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -325,10 +325,10 @@
     <t>CB8BFE2332380F34EC4F23C6187A318E87A733FDEF0C158459ACB47433DA5F92</t>
   </si>
   <si>
-    <t>F1DAC692A09E148AE00E47CA5AB026061D24A14130E6816AA9C88E5164FEF50E</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>C592F4ABE2F95329B0BE2FEC35CEFFC05E1FBCD012B90C90D14824B10B1F8271</t>
+  </si>
+  <si>
+    <t>476B6091D66B0AFDB5663C0D2D4B87E74D8E314514C6D386A0AFE24942D7C592</t>
   </si>
 </sst>
 </file>
@@ -1520,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -1555,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>

--- a/arifintahu/evidence.xlsx
+++ b/arifintahu/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Work\s16\gon-evidence\arifintahu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8323BD-F636-4C40-B82A-736E56129A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2DD927-75CC-4975-8B20-8589E32974E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="7" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -199,9 +199,6 @@
     <t>s16C1NFT012</t>
   </si>
   <si>
-    <t>078C26EEEFE029300FD65B478EAB8441302BD1A1791111933340AE06EEA7D9E6</t>
-  </si>
-  <si>
     <t>DC5E41FEB819DAEEC499B63E4FB483F6C1D994B0F4715E55534EC54303FC4728</t>
   </si>
   <si>
@@ -329,6 +326,9 @@
   </si>
   <si>
     <t>476B6091D66B0AFDB5663C0D2D4B87E74D8E314514C6D386A0AFE24942D7C592</t>
+  </si>
+  <si>
+    <t>19C056C0C9709A50C90228E5971D2BA72BA51A47AFA2AACDD320FFED769E2FF4</t>
   </si>
 </sst>
 </file>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -999,15 +999,15 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="5" spans="1:2" ht="13.8">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -1058,15 +1058,15 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -1074,15 +1074,15 @@
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
         <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.8">
       <c r="A5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -1117,23 +1117,23 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="5" spans="1:2" ht="13.8">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1176,23 +1176,23 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="5" spans="1:2" ht="13.8">
       <c r="A5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1235,15 +1235,15 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1251,15 +1251,15 @@
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.8">
       <c r="A5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -1295,23 +1295,23 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -1319,10 +1319,10 @@
     </row>
     <row r="5" spans="1:2" ht="13.8">
       <c r="A5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1389,15 +1389,15 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1405,15 +1405,15 @@
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -1421,15 +1421,15 @@
     </row>
     <row r="6" spans="1:2" ht="13.8">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="13.8">
       <c r="A7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -1464,15 +1464,15 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -1488,15 +1488,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -1533,12 +1533,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1555,7 +1555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -1568,12 +1568,12 @@
     </row>
     <row r="2" spans="1:1" ht="13.8">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1765,7 +1765,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>27</v>
@@ -1863,7 +1863,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>27</v>

--- a/arifintahu/evidence.xlsx
+++ b/arifintahu/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Work\s16\gon-evidence\arifintahu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2DD927-75CC-4975-8B20-8589E32974E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F0F942-74EF-4DAE-882C-DA52A6167F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="11" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,14 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="99">
   <si>
     <t>TeamName</t>
   </si>
@@ -82,12 +83,6 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>S16 Research Ventures</t>
   </si>
   <si>
@@ -329,6 +324,24 @@
   </si>
   <si>
     <t>19C056C0C9709A50C90228E5971D2BA72BA51A47AFA2AACDD320FFED769E2FF4</t>
+  </si>
+  <si>
+    <t>30F1E8BDFF94DABE13A332F0FDEDF275917D88E7BB28FF30D2FABE99F707E60F</t>
+  </si>
+  <si>
+    <t>DC19205B9046CF76145C0AFB37DA1145B55669474CF80D9DC9D7C98B2EA4A7E1</t>
+  </si>
+  <si>
+    <t>6174EB9A4FE8F41A1E0C75DBD1EA93F28B70E34E9C867C90853F258A0C6B8915</t>
+  </si>
+  <si>
+    <t>E2E418A326380E19CCAAFB8386F359AEDBFD073148EAFA69A24177D2C4770D2B</t>
+  </si>
+  <si>
+    <t>7E0B27634F6E45F4D25C63F898E27B3D41F25137EA384A3EE68B794676114062</t>
+  </si>
+  <si>
+    <t>7E21D3EEA04ABD3A98E30DD2FC846C65BB3DDAF201D7E8657B55D77243FD6759</t>
   </si>
 </sst>
 </file>
@@ -806,28 +819,28 @@
     </row>
     <row r="2" spans="1:8" ht="13.8">
       <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -859,10 +872,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -894,10 +907,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -929,10 +942,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -964,10 +977,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -999,34 +1012,34 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.8">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1058,34 +1071,34 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.8">
       <c r="A5" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1117,34 +1130,34 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.8">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1176,34 +1189,34 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.8">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1235,34 +1248,34 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.8">
       <c r="A5" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1295,34 +1308,34 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.8">
       <c r="A5" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1354,10 +1367,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1389,50 +1402,50 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.8">
       <c r="A6" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="13.8">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1464,50 +1477,50 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1533,12 +1546,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1568,12 +1581,12 @@
     </row>
     <row r="2" spans="1:1" ht="13.8">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1591,7 +1604,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -1603,12 +1616,12 @@
     </row>
     <row r="2" spans="1:1" ht="13.8">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1625,9 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <sheetData>
@@ -1638,12 +1649,12 @@
     </row>
     <row r="2" spans="1:1" ht="13.8">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1653,6 +1664,37 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89A689E-B104-4313-81C7-88CE7F99957F}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="13.8">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="13.8">
+      <c r="A2" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="13.8">
+      <c r="A3" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1683,46 +1725,46 @@
     </row>
     <row r="2" spans="1:3" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.8">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.8">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.8">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1762,16 +1804,16 @@
     </row>
     <row r="2" spans="1:7" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1812,16 +1854,16 @@
     </row>
     <row r="2" spans="1:4" ht="13.8">
       <c r="A2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1860,16 +1902,16 @@
     </row>
     <row r="2" spans="1:7" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1912,16 +1954,16 @@
     </row>
     <row r="2" spans="1:4" ht="13.8">
       <c r="A2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1953,10 +1995,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1988,10 +2030,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
